--- a/Computer_Organization_Note/tmp.xlsx
+++ b/Computer_Organization_Note/tmp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>Cache</t>
   </si>
@@ -25,10 +25,136 @@
     <t>Page</t>
   </si>
   <si>
+    <t>节拍</t>
+  </si>
+  <si>
+    <t>微操作命令</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>√</t>
   </si>
   <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>PC→MAR，1→R</t>
+  </si>
+  <si>
+    <t>现行指令地址→MAR；命令存储器读</t>
+  </si>
+  <si>
     <t>×</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Ad(CMAR)→CMAR</t>
+  </si>
+  <si>
+    <t>微指令地址字段→CMAR</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>M(MAR)→MDR，(PC)+1→PC</t>
+  </si>
+  <si>
+    <t>现行指令→MDR；程序计数器自增</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>MDR→IR</t>
+  </si>
+  <si>
+    <t>现行指令→IR</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>OP(IR)→微地址形成部件→CMAR</t>
   </si>
 </sst>
 </file>
@@ -36,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -58,16 +184,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,13 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -132,23 +251,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,40 +291,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -210,192 +336,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -419,11 +545,60 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +663,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -501,172 +700,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,19 +1178,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42857142857143" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="6" max="6" width="32.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="42.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,127 +1202,229 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="12" spans="7:9">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="7:9">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="7:9">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="7:9">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="7:9">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="7:9">
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="7:9">
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="7:9">
-      <c r="G14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="7:9">
-      <c r="G15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="7:9">
-      <c r="G16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9">
-      <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
